--- a/Photometry/data output/Photometry Absorption O-P V2.xlsx
+++ b/Photometry/data output/Photometry Absorption O-P V2.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis_P3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis_P3\Photometry\data output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A724E4-260A-4F1B-87BE-345AEA184CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECD387E-33D4-4803-9824-8C6E5AF48019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{19784BED-E69C-498E-9D27-C5EB263D22FE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="7" r:id="rId1"/>
-    <sheet name="filtereffectivedataWV1" sheetId="4" r:id="rId2"/>
-    <sheet name="filtereffectivedataWV2" sheetId="5" r:id="rId3"/>
-    <sheet name="Modeled (Moons)" sheetId="8" r:id="rId4"/>
-    <sheet name="Observed (Moons)" sheetId="6" r:id="rId5"/>
-    <sheet name="Observed VLT-MUSE MaximDL" sheetId="9" r:id="rId6"/>
-    <sheet name="Modeled VLT-MUSE Karkoschka" sheetId="11" r:id="rId7"/>
+    <sheet name="New Analysis 2024" sheetId="12" r:id="rId1"/>
+    <sheet name="Summary" sheetId="7" r:id="rId2"/>
+    <sheet name="filtereffectivedataWV1" sheetId="4" r:id="rId3"/>
+    <sheet name="filtereffectivedataWV2" sheetId="5" r:id="rId4"/>
+    <sheet name="Modeled (Moons)" sheetId="8" r:id="rId5"/>
+    <sheet name="Observed (Moons)" sheetId="6" r:id="rId6"/>
+    <sheet name="Observed VLT-MUSE MaximDL" sheetId="9" r:id="rId7"/>
+    <sheet name="Modeled VLT-MUSE Karkoschka" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -341,7 +341,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="147">
   <si>
     <t>Stddev</t>
   </si>
@@ -1227,6 +1227,239 @@
   </si>
   <si>
     <t>Albedo computed from MaximDL measurements of 0.25 scale PNG images with aperture settings of 34/2/8 on 6/29/2023</t>
+  </si>
+  <si>
+    <t>Kark</t>
+  </si>
+  <si>
+    <t>Methane VLT Trans fit= [-12.12611817  12.12042762]</t>
+  </si>
+  <si>
+    <t>Ammonia VLT Trans fit= [-11.37482     11.37391728]</t>
+  </si>
+  <si>
+    <t>Conversion from transmission to EW is computed by SpectralModeling.py</t>
+  </si>
+  <si>
+    <t>Methane SCT Trans fit=</t>
+  </si>
+  <si>
+    <t>Ammonia SCT Trans fit=</t>
+  </si>
+  <si>
+    <t>MUSE Avg.</t>
+  </si>
+  <si>
+    <t>MUSE
+2022-07-30</t>
+  </si>
+  <si>
+    <t>MUSE
+2022-09-19</t>
+  </si>
+  <si>
+    <t>Below are original square VLT filter profiles</t>
+  </si>
+  <si>
+    <t>Below are actual SCT filter profiles</t>
+  </si>
+  <si>
+    <t>Data for transmissions are from MUSE_Spectrum.py for both MUSE and Karkoschka</t>
+  </si>
+  <si>
+    <t>Note smoothing for 9/19 and 7/30 are different because of the different spectral sampling</t>
+  </si>
+  <si>
+    <t>DOCUMENT IN PAPER NOTES!!!</t>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CH4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(m-amagat)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>cloud</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>η</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>=4) (mb)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NH3</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(m-amagat)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(NH</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>) (ppm)</t>
+    </r>
+  </si>
+  <si>
+    <t>keff</t>
+  </si>
+  <si>
+    <t>fCH4</t>
+  </si>
+  <si>
+    <t>Using formulat and values from make_L3_env_data.py</t>
+  </si>
+  <si>
+    <t>Std</t>
+  </si>
+  <si>
+    <t>Frac Std</t>
+  </si>
+  <si>
+    <t>Overall Average</t>
+  </si>
+  <si>
+    <t>Propagated Error</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1474,7 @@
     <numFmt numFmtId="168" formatCode="0.0000E+00"/>
     <numFmt numFmtId="169" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1426,6 +1659,41 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1447,7 +1715,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1475,12 +1743,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1634,6 +1922,63 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1653,9 +1998,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1693,7 +2038,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1799,7 +2144,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1941,34 +2286,548 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DDAB8F-1E3A-460A-9C55-42BCBFC62DDD}">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" customWidth="1"/>
+    <col min="4" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+    </row>
+    <row r="2" spans="1:9" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.89581115720000104</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.89893532248524699</v>
+      </c>
+      <c r="D3" s="83">
+        <f>AVERAGE(C3,B3)</f>
+        <v>0.89737323984262396</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.88351775296968904</v>
+      </c>
+      <c r="F3" s="1">
+        <f>AVERAGE(B3:C3,E3)</f>
+        <v>0.89275474421831236</v>
+      </c>
+      <c r="G3" s="9">
+        <f>_xlfn.STDEV.P(B3:C3,E3)</f>
+        <v>6.6549033390296396E-3</v>
+      </c>
+      <c r="H3" s="98">
+        <f>G3/F3</f>
+        <v>7.4543466524578487E-3</v>
+      </c>
+      <c r="I3" s="98">
+        <f>(-LN(F3+G3)+LN(F3))/LN(F3)</f>
+        <v>6.5466141991640248E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="1">
+        <f>-LN(B3)</f>
+        <v>0.11002565027421968</v>
+      </c>
+      <c r="C4" s="1">
+        <f>-LN(C3)</f>
+        <v>0.1065441909414835</v>
+      </c>
+      <c r="D4" s="83">
+        <f t="shared" ref="D4" si="0">-LN(D3)</f>
+        <v>0.10828340553873111</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4" si="1">-LN(E3)</f>
+        <v>0.12384389351403492</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F8" si="2">AVERAGE(B4:C4,E4)</f>
+        <v>0.11347124490991269</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" ref="G4:G8" si="3">_xlfn.STDEV.P(B4:C4,E4)</f>
+        <v>7.471011491974518E-3</v>
+      </c>
+      <c r="H4" s="98">
+        <f t="shared" ref="H4:H8" si="4">G4/F4</f>
+        <v>6.5840570427388168E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="1">
+        <f>B$3*$B14+$C14</f>
+        <v>1.3359040243250906</v>
+      </c>
+      <c r="C5" s="1">
+        <f>C$3*$B14+$C14</f>
+        <v>1.2957040605174353</v>
+      </c>
+      <c r="D5" s="83">
+        <f>D$3*$B14+$C14</f>
+        <v>1.3158040424212629</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5" si="5">E$3*$B14+$C14</f>
+        <v>1.4940884864165422</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3752321904196894</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="3"/>
+        <v>8.5631472392272645E-2</v>
+      </c>
+      <c r="H5" s="98">
+        <f t="shared" si="4"/>
+        <v>6.2266919716400679E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.95955114371018102</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.96914466613228001</v>
+      </c>
+      <c r="D6" s="83">
+        <f>AVERAGE(C6,B6)</f>
+        <v>0.96434790492123046</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.963381217605777</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.96402567581607934</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="3"/>
+        <v>3.9429610619810913E-3</v>
+      </c>
+      <c r="H6" s="98">
+        <f t="shared" si="4"/>
+        <v>4.0900996320904475E-3</v>
+      </c>
+      <c r="I6" s="98">
+        <f>(-LN(F6+G6)+LN(F6))/LN(F6)</f>
+        <v>0.11140974730857693</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" ref="B7" si="6">-LN(B6)</f>
+        <v>4.1289662495105038E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <f>-LN(C6)</f>
+        <v>3.1341383980489974E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:E7" si="7">-LN(D6)</f>
+        <v>3.6303152258135817E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="7"/>
+        <v>3.7306080921905835E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="2"/>
+        <v>3.664570913250028E-2</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="3"/>
+        <v>4.0881234102596873E-3</v>
+      </c>
+      <c r="H7" s="98">
+        <f t="shared" si="4"/>
+        <v>0.1115580379541358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="44">
+        <f>B$6*$B15+$C15</f>
+        <v>0.486365590806912</v>
+      </c>
+      <c r="C8" s="44">
+        <f>C$6*$B15+$C15</f>
+        <v>0.37079917407968743</v>
+      </c>
+      <c r="D8" s="44">
+        <f>D$6*$B15+$C15</f>
+        <v>0.4285823824433006</v>
+      </c>
+      <c r="E8" s="44">
+        <f>E$6*$B15+$C15</f>
+        <v>0.44022738458404298</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.43246404982354747</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="3"/>
+        <v>4.7498078513734207E-2</v>
+      </c>
+      <c r="H8" s="98">
+        <f t="shared" si="4"/>
+        <v>0.10983127622542085</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="85" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="84" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14">
+        <v>-12.86742542</v>
+      </c>
+      <c r="C14">
+        <v>12.862687279999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15">
+        <v>-12.04629662</v>
+      </c>
+      <c r="C15">
+        <v>12.045403289999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="88" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A22" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="96">
+        <f>B4/$I22*1000</f>
+        <v>257.67131211761051</v>
+      </c>
+      <c r="C22" s="96">
+        <f>C4/$I22*1000</f>
+        <v>249.51801157256091</v>
+      </c>
+      <c r="D22" s="96">
+        <f>D4/$I22*1000</f>
+        <v>253.59111367384335</v>
+      </c>
+      <c r="E22" s="96">
+        <f>E4/$I22*1000</f>
+        <v>290.03253750359465</v>
+      </c>
+      <c r="F22" s="99">
+        <f>AVERAGE(B22:C22,E22)</f>
+        <v>265.74062039792199</v>
+      </c>
+      <c r="G22" s="100">
+        <f>_xlfn.STDEV.P(B22:C22,E22)</f>
+        <v>17.496514032727195</v>
+      </c>
+      <c r="H22" s="101">
+        <f>G22/F22</f>
+        <v>6.5840570427388126E-2</v>
+      </c>
+      <c r="I22" s="90">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="J22" s="97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A23" s="91" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="96">
+        <f>B22*2.69E+24*2479*3.85E-24/(0.00181*1010000)/4</f>
+        <v>904.68140802502819</v>
+      </c>
+      <c r="C23" s="96">
+        <f t="shared" ref="C23:E23" si="8">C22*2.69E+24*2479*3.85E-24/(0.00181*1010000)/4</f>
+        <v>876.05525109460518</v>
+      </c>
+      <c r="D23" s="96">
+        <f t="shared" si="8"/>
+        <v>890.3558719659577</v>
+      </c>
+      <c r="E23" s="96">
+        <f t="shared" si="8"/>
+        <v>1018.3013477342827</v>
+      </c>
+      <c r="F23" s="99">
+        <f t="shared" ref="F23:F27" si="9">AVERAGE(B23:C23,E23)</f>
+        <v>933.01266895130539</v>
+      </c>
+      <c r="G23" s="100">
+        <f t="shared" ref="G23:G27" si="10">_xlfn.STDEV.P(B23:C23,E23)</f>
+        <v>61.430086339733755</v>
+      </c>
+      <c r="H23" s="101">
+        <f t="shared" ref="H23:H27" si="11">G23/F23</f>
+        <v>6.5840570427388098E-2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>142</v>
+      </c>
+      <c r="J23" s="97"/>
+    </row>
+    <row r="24" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A24" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="39">
+        <f>B7/$I24*1000</f>
+        <v>13.972813027108304</v>
+      </c>
+      <c r="C24" s="39">
+        <f>C7/$I24*1000</f>
+        <v>10.606221313194578</v>
+      </c>
+      <c r="D24" s="39">
+        <f>D7/$I24*1000</f>
+        <v>12.285330713413137</v>
+      </c>
+      <c r="E24" s="39">
+        <f>E7/$I24*1000</f>
+        <v>12.624731276448674</v>
+      </c>
+      <c r="F24" s="99">
+        <f t="shared" si="9"/>
+        <v>12.401255205583851</v>
+      </c>
+      <c r="G24" s="100">
+        <f t="shared" si="10"/>
+        <v>1.383459698903452</v>
+      </c>
+      <c r="H24" s="101">
+        <f t="shared" si="11"/>
+        <v>0.11155803795413617</v>
+      </c>
+      <c r="I24" s="90">
+        <v>2.9550000000000001</v>
+      </c>
+      <c r="J24" s="97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="95">
+        <f>B24/B22*$I25</f>
+        <v>97.663321752853193</v>
+      </c>
+      <c r="C25" s="95">
+        <f>C24/C22*$I25</f>
+        <v>76.55481247496455</v>
+      </c>
+      <c r="D25" s="95">
+        <f>D24/D22*$I25</f>
+        <v>87.250220618196806</v>
+      </c>
+      <c r="E25" s="95">
+        <f>E24/E22*$I25</f>
+        <v>78.395138781979796</v>
+      </c>
+      <c r="F25" s="99">
+        <f t="shared" si="9"/>
+        <v>84.204424336599189</v>
+      </c>
+      <c r="G25" s="100">
+        <f t="shared" si="10"/>
+        <v>9.546487660391465</v>
+      </c>
+      <c r="H25" s="101">
+        <f t="shared" si="11"/>
+        <v>0.11337275607075332</v>
+      </c>
+      <c r="I25" s="94">
+        <v>1801</v>
+      </c>
+      <c r="J25" s="97" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F26" s="1"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="98"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F27" s="1"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="98"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6789E3-055C-4FD4-96DB-F71CA9E2F53C}">
   <dimension ref="A2:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView showGridLines="0" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="3" width="10.26953125" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="7" width="7.85546875" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="6" max="7" width="7.81640625" customWidth="1"/>
+    <col min="8" max="8" width="6.81640625" customWidth="1"/>
     <col min="9" max="10" width="7" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
         <v>62</v>
       </c>
@@ -1994,7 +2853,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="77" t="s">
         <v>51</v>
       </c>
@@ -2008,7 +2867,7 @@
       <c r="I3" s="77"/>
       <c r="J3" s="47"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>52</v>
       </c>
@@ -2040,7 +2899,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="36" t="s">
         <v>61</v>
       </c>
@@ -2072,7 +2931,7 @@
         <v>8.8683483203246274E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>60</v>
       </c>
@@ -2104,7 +2963,7 @@
         <v>207.10124349664011</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -2136,7 +2995,7 @@
         <v>655.2176467363679</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="78" t="s">
         <v>58</v>
       </c>
@@ -2150,7 +3009,7 @@
       <c r="I8" s="78"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>52</v>
       </c>
@@ -2182,7 +3041,7 @@
         <v>0.97199999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="36" t="s">
         <v>61</v>
       </c>
@@ -2214,7 +3073,7 @@
         <v>2.1299023391299219E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
         <v>60</v>
       </c>
@@ -2246,7 +3105,7 @@
         <v>7.1850095245126857</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="34" t="s">
         <v>59</v>
       </c>
@@ -2278,7 +3137,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C15" s="50"/>
       <c r="D15" t="s">
         <v>118</v>
@@ -2287,7 +3146,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="33" t="s">
         <v>62</v>
       </c>
@@ -2326,7 +3185,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="35" t="s">
         <v>69</v>
       </c>
@@ -2379,7 +3238,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="36" t="s">
         <v>71</v>
       </c>
@@ -2435,7 +3294,7 @@
         <v>12.733235349999999</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="36" t="s">
         <v>78</v>
       </c>
@@ -2477,7 +3336,7 @@
       </c>
       <c r="M19" s="46"/>
     </row>
-    <row r="20" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="35" t="s">
         <v>68</v>
       </c>
@@ -2524,7 +3383,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="36" t="s">
         <v>70</v>
       </c>
@@ -2580,7 +3439,7 @@
         <v>12.15195684</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="43" t="s">
         <v>81</v>
       </c>
@@ -2622,14 +3481,14 @@
       </c>
       <c r="M22" s="46"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C23" s="50"/>
       <c r="O23">
         <f>(C22-C23)/AVERAGE(C22:C23)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="33" t="s">
         <v>62</v>
       </c>
@@ -2660,7 +3519,7 @@
       </c>
       <c r="M25" s="47"/>
     </row>
-    <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="35" t="s">
         <v>74</v>
       </c>
@@ -2701,7 +3560,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="35" t="s">
         <v>77</v>
       </c>
@@ -2739,7 +3598,7 @@
         <v>-273.50768495370073</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="35" t="s">
         <v>75</v>
       </c>
@@ -2780,7 +3639,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="34" t="s">
         <v>76</v>
       </c>
@@ -2818,12 +3677,12 @@
         <v>0.29999999999999005</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>87</v>
       </c>
@@ -2832,7 +3691,7 @@
         <v>0.15315117949417478</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -2841,7 +3700,7 @@
         <v>7.4723546195936422E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -2849,7 +3708,7 @@
         <v>1.81E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2857,7 +3716,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2865,7 +3724,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -2885,7 +3744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24504FD0-8187-4C33-A7D1-9E38C1AA4864}">
   <dimension ref="A1:T28"/>
   <sheetViews>
@@ -2893,19 +3752,19 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="6" width="8.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" customWidth="1"/>
+    <col min="3" max="6" width="8.54296875" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="8" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="17" width="11" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" customWidth="1"/>
+    <col min="18" max="18" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -2967,7 +3826,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>620</v>
       </c>
@@ -3032,7 +3891,7 @@
         <v>882.08805902839299</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>632</v>
       </c>
@@ -3080,7 +3939,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>647</v>
       </c>
@@ -3137,7 +3996,7 @@
       </c>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>656</v>
       </c>
@@ -3194,7 +4053,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>658</v>
       </c>
@@ -3242,7 +4101,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>672</v>
       </c>
@@ -3290,7 +4149,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>730</v>
       </c>
@@ -3347,7 +4206,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>889</v>
       </c>
@@ -3395,7 +4254,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>940</v>
       </c>
@@ -3443,7 +4302,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="L11" s="16"/>
       <c r="M11" s="16" t="s">
         <v>1</v>
@@ -3452,7 +4311,7 @@
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="L12" s="16"/>
       <c r="M12" s="16" t="s">
         <v>0</v>
@@ -3461,12 +4320,12 @@
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="N14" s="12">
         <v>6.7500000000000001E-5</v>
       </c>
@@ -3474,7 +4333,7 @@
       <c r="P14" s="12"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="N15" s="12">
         <v>1.81E-3</v>
       </c>
@@ -3483,7 +4342,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="J17" s="17" t="s">
         <v>42</v>
       </c>
@@ -3499,7 +4358,7 @@
         <v>3.7932967405333362E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="J18" s="17" t="s">
         <v>43</v>
       </c>
@@ -3515,7 +4374,7 @@
         <v>6.865867100365339E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -3529,7 +4388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -3543,7 +4402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -3554,7 +4413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -3568,7 +4427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -3582,7 +4441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -3594,7 +4453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -3608,7 +4467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -3629,7 +4488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B8D906-DECF-495E-B648-BA86F65A43A8}">
   <dimension ref="A1:T28"/>
   <sheetViews>
@@ -3640,20 +4499,20 @@
       <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" customWidth="1"/>
+    <col min="8" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="17" width="11" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" customWidth="1"/>
+    <col min="18" max="18" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -3715,7 +4574,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>620</v>
       </c>
@@ -3780,7 +4639,7 @@
         <v>958.28741221054611</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>632</v>
       </c>
@@ -3828,7 +4687,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>647</v>
       </c>
@@ -3885,7 +4744,7 @@
       </c>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>656</v>
       </c>
@@ -3942,7 +4801,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>658</v>
       </c>
@@ -3990,7 +4849,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>672</v>
       </c>
@@ -4038,7 +4897,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>730</v>
       </c>
@@ -4095,7 +4954,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>889</v>
       </c>
@@ -4143,7 +5002,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>940</v>
       </c>
@@ -4191,7 +5050,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="L11" s="16"/>
       <c r="M11" s="16" t="s">
         <v>1</v>
@@ -4200,7 +5059,7 @@
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="L12" s="16"/>
       <c r="M12" s="16" t="s">
         <v>0</v>
@@ -4209,12 +5068,12 @@
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="N14" s="12">
         <v>1.08E-4</v>
       </c>
@@ -4222,7 +5081,7 @@
       <c r="P14" s="12"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="N15" s="12">
         <v>1.81E-3</v>
       </c>
@@ -4231,7 +5090,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="J17" s="17" t="s">
         <v>42</v>
       </c>
@@ -4247,7 +5106,7 @@
         <v>5.9757031731181819E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="J18" s="17" t="s">
         <v>43</v>
       </c>
@@ -4263,7 +5122,7 @@
         <v>1.0816022743343909E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -4274,7 +5133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -4285,7 +5144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -4293,7 +5152,7 @@
         <v>1.81E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -4304,7 +5163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -4315,7 +5174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -4324,7 +5183,7 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -4335,7 +5194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -4352,7 +5211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D68134-76B1-4DF2-B2D5-A6AD487B0E43}">
   <dimension ref="A1:U29"/>
   <sheetViews>
@@ -4360,15 +5219,15 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="11" width="8.7109375" customWidth="1"/>
+    <col min="8" max="11" width="8.7265625" customWidth="1"/>
     <col min="12" max="13" width="11" customWidth="1"/>
     <col min="17" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" customWidth="1"/>
+    <col min="21" max="21" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="I1" s="79" t="s">
         <v>99</v>
       </c>
@@ -4379,7 +5238,7 @@
       <c r="N1" s="79"/>
       <c r="O1" s="79"/>
     </row>
-    <row r="2" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4441,7 +5300,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>620</v>
       </c>
@@ -4503,7 +5362,7 @@
         <v>0.12569966692466594</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>647</v>
       </c>
@@ -4554,7 +5413,7 @@
       <c r="T4" s="4"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="L5" s="20"/>
       <c r="M5" s="14"/>
       <c r="Q5" s="12"/>
@@ -4566,7 +5425,7 @@
       </c>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="L6" s="19"/>
       <c r="M6" s="14"/>
       <c r="Q6" s="14"/>
@@ -4575,7 +5434,7 @@
       <c r="T6" s="4"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="L7" s="19"/>
       <c r="M7" s="14"/>
       <c r="Q7" s="14"/>
@@ -4584,7 +5443,7 @@
       <c r="T7" s="4"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="L8" s="19"/>
       <c r="M8" s="14"/>
       <c r="Q8" s="14"/>
@@ -4593,7 +5452,7 @@
       <c r="T8" s="4"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="L9" s="19"/>
       <c r="M9" s="12"/>
       <c r="Q9" s="14"/>
@@ -4602,7 +5461,7 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="L10" s="19"/>
       <c r="M10" s="14"/>
       <c r="Q10" s="14"/>
@@ -4611,7 +5470,7 @@
       <c r="T10" s="4"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="L11" s="19"/>
       <c r="M11" s="14"/>
       <c r="Q11" s="14"/>
@@ -4620,7 +5479,7 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="L12" s="16"/>
       <c r="M12" s="16" t="s">
         <v>1</v>
@@ -4629,7 +5488,7 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="L13" s="16"/>
       <c r="M13" s="16" t="s">
         <v>0</v>
@@ -4638,12 +5497,12 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="J15" s="17" t="s">
         <v>97</v>
       </c>
@@ -4658,7 +5517,7 @@
       <c r="S15" s="12"/>
       <c r="T15" s="3"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="J16" s="17" t="s">
         <v>100</v>
       </c>
@@ -4674,7 +5533,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="R18" s="17" t="s">
         <v>42</v>
       </c>
@@ -4683,7 +5542,7 @@
         <v>3.4039360873447791E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="R19" s="17" t="s">
         <v>43</v>
       </c>
@@ -4692,7 +5551,7 @@
         <v>6.1611243180940503E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -4703,7 +5562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -4714,7 +5573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -4722,7 +5581,7 @@
         <v>1.81E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -4733,7 +5592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -4744,7 +5603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -4753,7 +5612,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -4764,7 +5623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -4785,7 +5644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8FD118-7DAB-44F9-A6C2-13C8E628D16A}">
   <dimension ref="A1:AJ27"/>
   <sheetViews>
@@ -4796,21 +5655,21 @@
       <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="5" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" customWidth="1"/>
+    <col min="3" max="5" width="6.1796875" customWidth="1"/>
     <col min="6" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.26953125" customWidth="1"/>
+    <col min="14" max="14" width="10.7265625" customWidth="1"/>
+    <col min="17" max="17" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="C1" s="80" t="s">
         <v>44</v>
       </c>
@@ -4830,7 +5689,7 @@
       <c r="O1" s="79"/>
       <c r="P1" s="79"/>
     </row>
-    <row r="2" spans="1:36" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
         <v>16</v>
       </c>
@@ -4903,7 +5762,7 @@
       <c r="AE2" s="27"/>
       <c r="AF2" s="27"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>620</v>
       </c>
@@ -4979,7 +5838,7 @@
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>632</v>
       </c>
@@ -4997,7 +5856,7 @@
       <c r="T4" s="9"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>647</v>
       </c>
@@ -5072,7 +5931,7 @@
       <c r="AE5" s="5"/>
       <c r="AJ5" s="2"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>656</v>
       </c>
@@ -5110,7 +5969,7 @@
       <c r="U6" s="1"/>
       <c r="X6" s="8"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>658</v>
       </c>
@@ -5126,7 +5985,7 @@
       <c r="T7" s="9"/>
       <c r="X7" s="8"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>672</v>
       </c>
@@ -5142,7 +6001,7 @@
       <c r="T8" s="9"/>
       <c r="X8" s="10"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>730</v>
       </c>
@@ -5156,7 +6015,7 @@
       <c r="S9" s="16"/>
       <c r="T9" s="9"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>889</v>
       </c>
@@ -5181,7 +6040,7 @@
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>940</v>
       </c>
@@ -5192,17 +6051,17 @@
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="K14" s="17" t="s">
         <v>97</v>
       </c>
@@ -5219,7 +6078,7 @@
       <c r="T14" s="24"/>
       <c r="U14" s="24"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="K15" s="17" t="s">
         <v>100</v>
       </c>
@@ -5238,18 +6097,18 @@
       <c r="T15" s="24"/>
       <c r="U15" s="24"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="S17" s="17"/>
       <c r="T17" s="21"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="Q18" s="12"/>
       <c r="S18" s="17"/>
     </row>
-    <row r="19" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -5267,7 +6126,7 @@
         <v>3.4198895027624313E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -5281,7 +6140,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -5289,7 +6148,7 @@
         <v>1.81E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -5302,7 +6161,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -5319,7 +6178,7 @@
         <v>16129.032258064517</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -5333,7 +6192,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -5350,7 +6209,7 @@
         <v>16252.032258064517</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -5368,7 +6227,7 @@
         <v>615.30766375619521</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -5391,7 +6250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371E5485-8047-4EFF-93C7-3FA5C516909C}">
   <dimension ref="A1:O24"/>
   <sheetViews>
@@ -5399,22 +6258,22 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>101</v>
       </c>
@@ -5443,7 +6302,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>620</v>
       </c>
@@ -5482,7 +6341,7 @@
         <v>1032.9106171720507</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>632</v>
       </c>
@@ -5513,7 +6372,7 @@
         <v>785.41501740716751</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>647</v>
       </c>
@@ -5548,7 +6407,7 @@
         <v>18.599999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>656</v>
       </c>
@@ -5559,24 +6418,24 @@
         <v>21794100</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H7">
         <f>H5/H3</f>
         <v>3.8085074084025422E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H8" s="2">
         <f>H7*$C$19</f>
         <v>6.8933984092086018E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>620</v>
       </c>
@@ -5612,7 +6471,7 @@
         <v>1059.3661273625441</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>632</v>
       </c>
@@ -5640,7 +6499,7 @@
         <v>930.32302855453042</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>647</v>
       </c>
@@ -5668,7 +6527,7 @@
         <v>185480.92437046053</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>656</v>
       </c>
@@ -5682,7 +6541,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F14" s="1"/>
       <c r="H14" s="75">
         <f>H12/H10</f>
@@ -5695,7 +6554,7 @@
         <v>0.96399999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H15" s="2">
         <f>H14*$C$19</f>
         <v>6.3422580307480865E-5</v>
@@ -5707,13 +6566,13 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H16" s="75">
         <f>H12/H11</f>
         <v>3.9900436186933889E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -5740,7 +6599,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -5767,7 +6626,7 @@
         <v>1.0291970802919708</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -5779,7 +6638,7 @@
         <v>9.0656076691455318E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -5790,7 +6649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -5801,7 +6660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -5810,7 +6669,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -5821,7 +6680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -5840,7 +6699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086C7CE1-5556-4BF5-B0E4-471B800382FE}">
   <dimension ref="A1:T29"/>
   <sheetViews>
@@ -5848,15 +6707,15 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="10" width="8.7109375" customWidth="1"/>
+    <col min="8" max="10" width="8.7265625" customWidth="1"/>
     <col min="11" max="12" width="11" customWidth="1"/>
     <col min="16" max="19" width="11" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" customWidth="1"/>
+    <col min="20" max="20" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="I1" s="79" t="s">
         <v>99</v>
       </c>
@@ -5866,7 +6725,7 @@
       <c r="M1" s="79"/>
       <c r="N1" s="79"/>
     </row>
-    <row r="2" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5925,7 +6784,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>620</v>
       </c>
@@ -5984,7 +6843,7 @@
         <v>3976.9683708874259</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>647</v>
       </c>
@@ -6032,7 +6891,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="K5" s="20"/>
       <c r="L5" s="14"/>
       <c r="P5" s="12"/>
@@ -6044,7 +6903,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="K6" s="19"/>
       <c r="L6" s="14"/>
       <c r="P6" s="14"/>
@@ -6053,7 +6912,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G7" s="68" t="s">
         <v>120</v>
       </c>
@@ -6071,7 +6930,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G8" s="17"/>
       <c r="I8" s="72"/>
       <c r="K8" s="19"/>
@@ -6082,7 +6941,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G9" s="17"/>
       <c r="H9">
         <f>H3/0.454</f>
@@ -6097,7 +6956,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G10" s="17"/>
       <c r="H10" s="9">
         <f>H4/3.129</f>
@@ -6115,7 +6974,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G11" s="17"/>
       <c r="H11" s="1"/>
       <c r="I11" s="72"/>
@@ -6128,7 +6987,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G12" s="69" t="s">
         <v>116</v>
       </c>
@@ -6147,7 +7006,7 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G13" s="69" t="s">
         <v>116</v>
       </c>
@@ -6166,12 +7025,12 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="I15" s="17" t="s">
         <v>97</v>
       </c>
@@ -6186,7 +7045,7 @@
       <c r="R15" s="12"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="I16" s="17" t="s">
         <v>100</v>
       </c>
@@ -6202,7 +7061,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="Q18" s="17" t="s">
         <v>42</v>
       </c>
@@ -6211,7 +7070,7 @@
         <v>4.4659341698269236E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="Q19" s="17" t="s">
         <v>43</v>
       </c>
@@ -6220,7 +7079,7 @@
         <v>8.0833408473867322E-7</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -6231,7 +7090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -6242,7 +7101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -6250,7 +7109,7 @@
         <v>1.81E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -6261,7 +7120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -6272,7 +7131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -6281,7 +7140,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -6292,7 +7151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>15</v>
       </c>

--- a/Photometry/data output/Photometry Absorption O-P V2.xlsx
+++ b/Photometry/data output/Photometry Absorption O-P V2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis_P3\Photometry\data output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECD387E-33D4-4803-9824-8C6E5AF48019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E56E53-E20F-423C-92BC-320256B283C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{19784BED-E69C-498E-9D27-C5EB263D22FE}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <sheet name="Modeled VLT-MUSE Karkoschka" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1768,7 +1769,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1911,31 +1912,12 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1957,9 +1939,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1978,6 +1957,21 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2297,7 +2291,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2311,30 +2305,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
     </row>
     <row r="2" spans="1:9" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="77" t="s">
         <v>122</v>
       </c>
       <c r="F2" s="26" t="s">
@@ -2360,7 +2354,7 @@
       <c r="C3" s="1">
         <v>0.89893532248524699</v>
       </c>
-      <c r="D3" s="83">
+      <c r="D3" s="1">
         <f>AVERAGE(C3,B3)</f>
         <v>0.89737323984262396</v>
       </c>
@@ -2368,18 +2362,18 @@
         <v>0.88351775296968904</v>
       </c>
       <c r="F3" s="1">
-        <f>AVERAGE(B3:C3,E3)</f>
+        <f t="shared" ref="F3:F8" si="0">AVERAGE(B3:C3,E3)</f>
         <v>0.89275474421831236</v>
       </c>
       <c r="G3" s="9">
-        <f>_xlfn.STDEV.P(B3:C3,E3)</f>
+        <f t="shared" ref="G3:G8" si="1">_xlfn.STDEV.P(B3:C3,E3)</f>
         <v>6.6549033390296396E-3</v>
       </c>
-      <c r="H3" s="98">
-        <f>G3/F3</f>
+      <c r="H3" s="90">
+        <f t="shared" ref="H3:H8" si="2">G3/F3</f>
         <v>7.4543466524578487E-3</v>
       </c>
-      <c r="I3" s="98">
+      <c r="I3" s="90">
         <f>(-LN(F3+G3)+LN(F3))/LN(F3)</f>
         <v>6.5466141991640248E-2</v>
       </c>
@@ -2396,24 +2390,24 @@
         <f>-LN(C3)</f>
         <v>0.1065441909414835</v>
       </c>
-      <c r="D4" s="83">
-        <f t="shared" ref="D4" si="0">-LN(D3)</f>
+      <c r="D4" s="1">
+        <f>-LN(D3)</f>
         <v>0.10828340553873111</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4" si="1">-LN(E3)</f>
+        <f>-LN(E3)</f>
         <v>0.12384389351403492</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F8" si="2">AVERAGE(B4:C4,E4)</f>
+        <f t="shared" si="0"/>
         <v>0.11347124490991269</v>
       </c>
       <c r="G4" s="9">
-        <f t="shared" ref="G4:G8" si="3">_xlfn.STDEV.P(B4:C4,E4)</f>
+        <f t="shared" si="1"/>
         <v>7.471011491974518E-3</v>
       </c>
-      <c r="H4" s="98">
-        <f t="shared" ref="H4:H8" si="4">G4/F4</f>
+      <c r="H4" s="90">
+        <f t="shared" si="2"/>
         <v>6.5840570427388168E-2</v>
       </c>
     </row>
@@ -2429,24 +2423,24 @@
         <f>C$3*$B14+$C14</f>
         <v>1.2957040605174353</v>
       </c>
-      <c r="D5" s="83">
+      <c r="D5" s="1">
         <f>D$3*$B14+$C14</f>
         <v>1.3158040424212629</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5" si="5">E$3*$B14+$C14</f>
+        <f>E$3*$B14+$C14</f>
         <v>1.4940884864165422</v>
       </c>
       <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3752321904196894</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="1"/>
+        <v>8.5631472392272645E-2</v>
+      </c>
+      <c r="H5" s="90">
         <f t="shared" si="2"/>
-        <v>1.3752321904196894</v>
-      </c>
-      <c r="G5" s="9">
-        <f t="shared" si="3"/>
-        <v>8.5631472392272645E-2</v>
-      </c>
-      <c r="H5" s="98">
-        <f t="shared" si="4"/>
         <v>6.2266919716400679E-2</v>
       </c>
     </row>
@@ -2460,7 +2454,7 @@
       <c r="C6" s="1">
         <v>0.96914466613228001</v>
       </c>
-      <c r="D6" s="83">
+      <c r="D6" s="1">
         <f>AVERAGE(C6,B6)</f>
         <v>0.96434790492123046</v>
       </c>
@@ -2468,18 +2462,18 @@
         <v>0.963381217605777</v>
       </c>
       <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96402567581607934</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="1"/>
+        <v>3.9429610619810913E-3</v>
+      </c>
+      <c r="H6" s="90">
         <f t="shared" si="2"/>
-        <v>0.96402567581607934</v>
-      </c>
-      <c r="G6" s="9">
-        <f t="shared" si="3"/>
-        <v>3.9429610619810913E-3</v>
-      </c>
-      <c r="H6" s="98">
-        <f t="shared" si="4"/>
         <v>4.0900996320904475E-3</v>
       </c>
-      <c r="I6" s="98">
+      <c r="I6" s="90">
         <f>(-LN(F6+G6)+LN(F6))/LN(F6)</f>
         <v>0.11140974730857693</v>
       </c>
@@ -2489,7 +2483,7 @@
         <v>70</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ref="B7" si="6">-LN(B6)</f>
+        <f>-LN(B6)</f>
         <v>4.1289662495105038E-2</v>
       </c>
       <c r="C7" s="1">
@@ -2497,23 +2491,23 @@
         <v>3.1341383980489974E-2</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:E7" si="7">-LN(D6)</f>
+        <f>-LN(D6)</f>
         <v>3.6303152258135817E-2</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="7"/>
+        <f>-LN(E6)</f>
         <v>3.7306080921905835E-2</v>
       </c>
       <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>3.664570913250028E-2</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="1"/>
+        <v>4.0881234102596873E-3</v>
+      </c>
+      <c r="H7" s="90">
         <f t="shared" si="2"/>
-        <v>3.664570913250028E-2</v>
-      </c>
-      <c r="G7" s="9">
-        <f t="shared" si="3"/>
-        <v>4.0881234102596873E-3</v>
-      </c>
-      <c r="H7" s="98">
-        <f t="shared" si="4"/>
         <v>0.1115580379541358</v>
       </c>
     </row>
@@ -2538,25 +2532,25 @@
         <v>0.44022738458404298</v>
       </c>
       <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.43246404982354747</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="1"/>
+        <v>4.7498078513734207E-2</v>
+      </c>
+      <c r="H8" s="90">
         <f t="shared" si="2"/>
-        <v>0.43246404982354747</v>
-      </c>
-      <c r="G8" s="9">
-        <f t="shared" si="3"/>
-        <v>4.7498078513734207E-2</v>
-      </c>
-      <c r="H8" s="98">
-        <f t="shared" si="4"/>
         <v>0.10983127622542085</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="78" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="36" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2609,109 +2603,109 @@
     </row>
     <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="21" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="82" t="s">
+      <c r="D21" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="82" t="s">
+      <c r="E21" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="F21" s="88" t="s">
+      <c r="F21" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="G21" s="88" t="s">
+      <c r="G21" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="H21" s="88" t="s">
+      <c r="H21" s="81" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="31" x14ac:dyDescent="0.35">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="B22" s="96">
+      <c r="B22" s="88">
         <f>B4/$I22*1000</f>
         <v>257.67131211761051</v>
       </c>
-      <c r="C22" s="96">
+      <c r="C22" s="88">
         <f>C4/$I22*1000</f>
         <v>249.51801157256091</v>
       </c>
-      <c r="D22" s="96">
+      <c r="D22" s="88">
         <f>D4/$I22*1000</f>
         <v>253.59111367384335</v>
       </c>
-      <c r="E22" s="96">
+      <c r="E22" s="88">
         <f>E4/$I22*1000</f>
         <v>290.03253750359465</v>
       </c>
-      <c r="F22" s="99">
+      <c r="F22" s="91">
         <f>AVERAGE(B22:C22,E22)</f>
         <v>265.74062039792199</v>
       </c>
-      <c r="G22" s="100">
+      <c r="G22" s="92">
         <f>_xlfn.STDEV.P(B22:C22,E22)</f>
         <v>17.496514032727195</v>
       </c>
-      <c r="H22" s="101">
+      <c r="H22" s="93">
         <f>G22/F22</f>
         <v>6.5840570427388126E-2</v>
       </c>
-      <c r="I22" s="90">
+      <c r="I22" s="83">
         <v>0.42699999999999999</v>
       </c>
-      <c r="J22" s="97" t="s">
+      <c r="J22" s="89" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="31" x14ac:dyDescent="0.35">
-      <c r="A23" s="91" t="s">
+      <c r="A23" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="B23" s="96">
-        <f>B22*2.69E+24*2479*3.85E-24/(0.00181*1010000)/4</f>
-        <v>904.68140802502819</v>
-      </c>
-      <c r="C23" s="96">
-        <f t="shared" ref="C23:E23" si="8">C22*2.69E+24*2479*3.85E-24/(0.00181*1010000)/4</f>
-        <v>876.05525109460518</v>
-      </c>
-      <c r="D23" s="96">
-        <f t="shared" si="8"/>
-        <v>890.3558719659577</v>
-      </c>
-      <c r="E23" s="96">
-        <f t="shared" si="8"/>
-        <v>1018.3013477342827</v>
-      </c>
-      <c r="F23" s="99">
-        <f t="shared" ref="F23:F27" si="9">AVERAGE(B23:C23,E23)</f>
-        <v>933.01266895130539</v>
-      </c>
-      <c r="G23" s="100">
-        <f t="shared" ref="G23:G27" si="10">_xlfn.STDEV.P(B23:C23,E23)</f>
-        <v>61.430086339733755</v>
-      </c>
-      <c r="H23" s="101">
-        <f t="shared" ref="H23:H27" si="11">G23/F23</f>
-        <v>6.5840570427388098E-2</v>
+      <c r="B23" s="88">
+        <f>B22*2.69E+24*2479*3.85E-24/(0.00204*1010000)/4</f>
+        <v>802.68301398299059</v>
+      </c>
+      <c r="C23" s="88">
+        <f>C22*2.69E+24*2479*3.85E-24/(0.00204*1010000)/4</f>
+        <v>777.28431592217407</v>
+      </c>
+      <c r="D23" s="88">
+        <f>D22*2.69E+24*2479*3.85E-24/(0.00204*1010000)/4</f>
+        <v>789.97261189136441</v>
+      </c>
+      <c r="E23" s="88">
+        <f>E22*2.69E+24*2479*3.85E-24/(0.00204*1010000)/4</f>
+        <v>903.49286245051542</v>
+      </c>
+      <c r="F23" s="91">
+        <f>AVERAGE(B23:C23,E23)</f>
+        <v>827.82006411856003</v>
+      </c>
+      <c r="G23" s="92">
+        <f>_xlfn.STDEV.P(B23:C23,E23)</f>
+        <v>54.504145232803005</v>
+      </c>
+      <c r="H23" s="93">
+        <f>G23/F23</f>
+        <v>6.5840570427388126E-2</v>
       </c>
       <c r="I23" t="s">
         <v>142</v>
       </c>
-      <c r="J23" s="97"/>
+      <c r="J23" s="89"/>
     </row>
     <row r="24" spans="1:10" ht="31" x14ac:dyDescent="0.35">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="82" t="s">
         <v>138</v>
       </c>
       <c r="B24" s="39">
@@ -2730,73 +2724,73 @@
         <f>E7/$I24*1000</f>
         <v>12.624731276448674</v>
       </c>
-      <c r="F24" s="99">
-        <f t="shared" si="9"/>
+      <c r="F24" s="91">
+        <f>AVERAGE(B24:C24,E24)</f>
         <v>12.401255205583851</v>
       </c>
-      <c r="G24" s="100">
-        <f t="shared" si="10"/>
+      <c r="G24" s="92">
+        <f>_xlfn.STDEV.P(B24:C24,E24)</f>
         <v>1.383459698903452</v>
       </c>
-      <c r="H24" s="101">
-        <f t="shared" si="11"/>
+      <c r="H24" s="93">
+        <f>G24/F24</f>
         <v>0.11155803795413617</v>
       </c>
-      <c r="I24" s="90">
+      <c r="I24" s="83">
         <v>2.9550000000000001</v>
       </c>
-      <c r="J24" s="97" t="s">
+      <c r="J24" s="89" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="92" t="s">
+      <c r="A25" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="B25" s="95">
+      <c r="B25" s="87">
         <f>B24/B22*$I25</f>
-        <v>97.663321752853193</v>
-      </c>
-      <c r="C25" s="95">
+        <v>110.6236404085622</v>
+      </c>
+      <c r="C25" s="87">
         <f>C24/C22*$I25</f>
-        <v>76.55481247496455</v>
-      </c>
-      <c r="D25" s="95">
+        <v>86.713946390298545</v>
+      </c>
+      <c r="D25" s="87">
         <f>D24/D22*$I25</f>
-        <v>87.250220618196806</v>
-      </c>
-      <c r="E25" s="95">
+        <v>98.828678545875334</v>
+      </c>
+      <c r="E25" s="87">
         <f>E24/E22*$I25</f>
-        <v>78.395138781979796</v>
-      </c>
-      <c r="F25" s="99">
-        <f t="shared" si="9"/>
-        <v>84.204424336599189</v>
-      </c>
-      <c r="G25" s="100">
-        <f t="shared" si="10"/>
-        <v>9.546487660391465</v>
-      </c>
-      <c r="H25" s="101">
-        <f t="shared" si="11"/>
-        <v>0.11337275607075332</v>
-      </c>
-      <c r="I25" s="94">
-        <v>1801</v>
-      </c>
-      <c r="J25" s="97" t="s">
+        <v>88.798491457656183</v>
+      </c>
+      <c r="F25" s="91">
+        <f>AVERAGE(B25:C25,E25)</f>
+        <v>95.378692752172313</v>
+      </c>
+      <c r="G25" s="92">
+        <f>_xlfn.STDEV.P(B25:C25,E25)</f>
+        <v>10.813345267739262</v>
+      </c>
+      <c r="H25" s="93">
+        <f>G25/F25</f>
+        <v>0.1133727560707523</v>
+      </c>
+      <c r="I25" s="83">
+        <v>2040</v>
+      </c>
+      <c r="J25" s="89" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F26" s="1"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="98"/>
+      <c r="H26" s="90"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F27" s="1"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="98"/>
+      <c r="H27" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2854,17 +2848,17 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
       <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -2996,17 +2990,17 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
       <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -5228,15 +5222,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
     </row>
     <row r="2" spans="1:21" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -5670,24 +5664,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="79" t="s">
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
     </row>
     <row r="2" spans="1:36" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
@@ -6716,14 +6710,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
     </row>
     <row r="2" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" t="s">

--- a/Photometry/data output/Photometry Absorption O-P V2.xlsx
+++ b/Photometry/data output/Photometry Absorption O-P V2.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis_P3\Photometry\data output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E56E53-E20F-423C-92BC-320256B283C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8A0911-9CF3-48D1-BA32-95BE755ABB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{19784BED-E69C-498E-9D27-C5EB263D22FE}"/>
   </bookViews>
   <sheets>
-    <sheet name="New Analysis 2024" sheetId="12" r:id="rId1"/>
-    <sheet name="Summary" sheetId="7" r:id="rId2"/>
-    <sheet name="filtereffectivedataWV1" sheetId="4" r:id="rId3"/>
-    <sheet name="filtereffectivedataWV2" sheetId="5" r:id="rId4"/>
-    <sheet name="Modeled (Moons)" sheetId="8" r:id="rId5"/>
-    <sheet name="Observed (Moons)" sheetId="6" r:id="rId6"/>
-    <sheet name="Observed VLT-MUSE MaximDL" sheetId="9" r:id="rId7"/>
-    <sheet name="Modeled VLT-MUSE Karkoschka" sheetId="11" r:id="rId8"/>
+    <sheet name="Post Paper" sheetId="13" r:id="rId1"/>
+    <sheet name="Paper Analysis 2024" sheetId="12" r:id="rId2"/>
+    <sheet name="Summary" sheetId="7" r:id="rId3"/>
+    <sheet name="filtereffectivedataWV1" sheetId="4" r:id="rId4"/>
+    <sheet name="filtereffectivedataWV2" sheetId="5" r:id="rId5"/>
+    <sheet name="Modeled (Moons)" sheetId="8" r:id="rId6"/>
+    <sheet name="Observed (Moons)" sheetId="6" r:id="rId7"/>
+    <sheet name="Observed VLT-MUSE MaximDL" sheetId="9" r:id="rId8"/>
+    <sheet name="Modeled VLT-MUSE Karkoschka" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -129,7 +129,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steven Hill:</t>
         </r>
@@ -138,7 +138,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Need to double check if this is using continuum Model 1, or interpolation
@@ -342,7 +342,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="153">
   <si>
     <t>Stddev</t>
   </si>
@@ -1462,6 +1462,30 @@
   <si>
     <t>Propagated Error</t>
   </si>
+  <si>
+    <t>MUSE
+2023-08-12</t>
+  </si>
+  <si>
+    <t>MUSE
+2023-08-15</t>
+  </si>
+  <si>
+    <t>MUSE
+2023-08-16</t>
+  </si>
+  <si>
+    <t>MUSE
+2023-09-23</t>
+  </si>
+  <si>
+    <t>MUSE Avg.
+2022</t>
+  </si>
+  <si>
+    <t>MUSE Avg.
+2023</t>
+  </si>
 </sst>
 </file>
 
@@ -1475,7 +1499,7 @@
     <numFmt numFmtId="168" formatCode="0.0000E+00"/>
     <numFmt numFmtId="169" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1646,19 +1670,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -1930,13 +1941,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2287,11 +2298,772 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D2AC8C-9410-4264-A671-2B09D4DDDCA8}">
+  <dimension ref="A1:O27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" customWidth="1"/>
+    <col min="4" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" customWidth="1"/>
+    <col min="7" max="8" width="10.1796875" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+    </row>
+    <row r="2" spans="1:15" s="26" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.89581115720000104</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.89893532248524699</v>
+      </c>
+      <c r="D3" s="1">
+        <f>AVERAGE(C3,B3)</f>
+        <v>0.89737323984262396</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="I3" s="1">
+        <f>AVERAGE(E3:H3)</f>
+        <v>0.89624999999999999</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.88351775296968904</v>
+      </c>
+      <c r="K3" s="1">
+        <f>AVERAGE(B3:C3,J3)</f>
+        <v>0.89275474421831236</v>
+      </c>
+      <c r="L3" s="9">
+        <f>_xlfn.STDEV.P(B3:C3,J3)</f>
+        <v>6.6549033390296396E-3</v>
+      </c>
+      <c r="M3" s="90">
+        <f t="shared" ref="M3:M8" si="0">L3/K3</f>
+        <v>7.4543466524578487E-3</v>
+      </c>
+      <c r="N3" s="90">
+        <f>(-LN(K3+L3)+LN(K3))/LN(K3)</f>
+        <v>6.5466141991640248E-2</v>
+      </c>
+      <c r="O3" s="90">
+        <f>(I3-D3)/D3</f>
+        <v>-1.251697501945741E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="1">
+        <f>-LN(B3)</f>
+        <v>0.11002565027421968</v>
+      </c>
+      <c r="C4" s="1">
+        <f>-LN(C3)</f>
+        <v>0.1065441909414835</v>
+      </c>
+      <c r="D4" s="1">
+        <f>-LN(D3)</f>
+        <v>0.10828340553873111</v>
+      </c>
+      <c r="E4" s="1">
+        <f>-LN(E3)</f>
+        <v>0.11878353598996698</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:H4" si="1">-LN(F3)</f>
+        <v>0.10758521067993743</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.10758521067993743</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.10425002137379911</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I8" si="2">AVERAGE(E4:H4)</f>
+        <v>0.10955099468091024</v>
+      </c>
+      <c r="J4" s="1">
+        <f>-LN(J3)</f>
+        <v>0.12384389351403492</v>
+      </c>
+      <c r="K4" s="1">
+        <f>AVERAGE(B4:C4,J4)</f>
+        <v>0.11347124490991269</v>
+      </c>
+      <c r="L4" s="9">
+        <f>_xlfn.STDEV.P(B4:C4,J4)</f>
+        <v>7.471011491974518E-3</v>
+      </c>
+      <c r="M4" s="90">
+        <f t="shared" si="0"/>
+        <v>6.5840570427388168E-2</v>
+      </c>
+      <c r="O4" s="90">
+        <f t="shared" ref="O4:O8" si="3">(I4-D4)/D4</f>
+        <v>1.1706217918365472E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="1">
+        <f>B$3*$B14+$C14</f>
+        <v>1.3359040243250906</v>
+      </c>
+      <c r="C5" s="1">
+        <f>C$3*$B14+$C14</f>
+        <v>1.2957040605174353</v>
+      </c>
+      <c r="D5" s="1">
+        <f>D$3*$B14+$C14</f>
+        <v>1.3158040424212629</v>
+      </c>
+      <c r="E5" s="1">
+        <f>E$3*$B14+$C14</f>
+        <v>1.4364135070399993</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:H5" si="4">F$3*$B14+$C14</f>
+        <v>1.3077392528399994</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3077392528399994</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2691369765799987</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3302572473249992</v>
+      </c>
+      <c r="J5" s="1">
+        <f>J$3*$B14+$C14</f>
+        <v>1.4940884864165422</v>
+      </c>
+      <c r="K5" s="1">
+        <f>AVERAGE(B5:C5,J5)</f>
+        <v>1.3752321904196894</v>
+      </c>
+      <c r="L5" s="9">
+        <f>_xlfn.STDEV.P(B5:C5,J5)</f>
+        <v>8.5631472392272645E-2</v>
+      </c>
+      <c r="M5" s="90">
+        <f t="shared" si="0"/>
+        <v>6.2266919716400679E-2</v>
+      </c>
+      <c r="O5" s="90">
+        <f t="shared" si="3"/>
+        <v>1.0984314105875779E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.95955114371018102</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.96914466613228001</v>
+      </c>
+      <c r="D6" s="1">
+        <f>AVERAGE(C6,B6)</f>
+        <v>0.96434790492123046</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.95950000000000002</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.963381217605777</v>
+      </c>
+      <c r="K6" s="1">
+        <f>AVERAGE(B6:C6,J6)</f>
+        <v>0.96402567581607934</v>
+      </c>
+      <c r="L6" s="9">
+        <f>_xlfn.STDEV.P(B6:C6,J6)</f>
+        <v>3.9429610619810913E-3</v>
+      </c>
+      <c r="M6" s="90">
+        <f t="shared" si="0"/>
+        <v>4.0900996320904475E-3</v>
+      </c>
+      <c r="N6" s="90">
+        <f>(-LN(K6+L6)+LN(K6))/LN(K6)</f>
+        <v>0.11140974730857693</v>
+      </c>
+      <c r="O6" s="90">
+        <f t="shared" si="3"/>
+        <v>-5.0271327354897135E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1">
+        <f>-LN(B6)</f>
+        <v>4.1289662495105038E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <f>-LN(C6)</f>
+        <v>3.1341383980489974E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <f>-LN(D6)</f>
+        <v>3.6303152258135817E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <f>-LN(E6)</f>
+        <v>3.8740828316430595E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" ref="F7:H7" si="5">-LN(F6)</f>
+        <v>4.290750101127655E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="5"/>
+        <v>4.290750101127655E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="5"/>
+        <v>4.0821994520255166E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1344456214809713E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <f>-LN(J6)</f>
+        <v>3.7306080921905835E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(B7:C7,J7)</f>
+        <v>3.664570913250028E-2</v>
+      </c>
+      <c r="L7" s="9">
+        <f>_xlfn.STDEV.P(B7:C7,J7)</f>
+        <v>4.0881234102596873E-3</v>
+      </c>
+      <c r="M7" s="90">
+        <f t="shared" si="0"/>
+        <v>0.1115580379541358</v>
+      </c>
+      <c r="O7" s="90">
+        <f t="shared" si="3"/>
+        <v>0.13886683781142178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="44">
+        <f>B$6*$B15+$C15</f>
+        <v>0.486365590806912</v>
+      </c>
+      <c r="C8" s="44">
+        <f>C$6*$B15+$C15</f>
+        <v>0.37079917407968743</v>
+      </c>
+      <c r="D8" s="44">
+        <f>D$6*$B15+$C15</f>
+        <v>0.4285823824433006</v>
+      </c>
+      <c r="E8" s="44">
+        <f>E$6*$B15+$C15</f>
+        <v>0.45686594156000027</v>
+      </c>
+      <c r="F8" s="44">
+        <f t="shared" ref="F8:H8" si="6">F$6*$B15+$C15</f>
+        <v>0.50505112803999985</v>
+      </c>
+      <c r="G8" s="44">
+        <f t="shared" si="6"/>
+        <v>0.50505112803999985</v>
+      </c>
+      <c r="H8" s="44">
+        <f t="shared" si="6"/>
+        <v>0.48095853480000095</v>
+      </c>
+      <c r="I8" s="44">
+        <f t="shared" si="2"/>
+        <v>0.48698168311000023</v>
+      </c>
+      <c r="J8" s="44">
+        <f>J$6*$B15+$C15</f>
+        <v>0.44022738458404298</v>
+      </c>
+      <c r="K8" s="1">
+        <f>AVERAGE(B8:C8,J8)</f>
+        <v>0.43246404982354747</v>
+      </c>
+      <c r="L8" s="9">
+        <f>_xlfn.STDEV.P(B8:C8,J8)</f>
+        <v>4.7498078513734207E-2</v>
+      </c>
+      <c r="M8" s="90">
+        <f t="shared" si="0"/>
+        <v>0.10983127622542085</v>
+      </c>
+      <c r="O8" s="90">
+        <f t="shared" si="3"/>
+        <v>0.13626155217527069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="78" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14">
+        <v>-12.86742542</v>
+      </c>
+      <c r="C14">
+        <v>12.862687279999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15">
+        <v>-12.04629662</v>
+      </c>
+      <c r="C15">
+        <v>12.045403289999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="H21" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="I21" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="J21" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="K21" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="L21" s="81" t="s">
+        <v>143</v>
+      </c>
+      <c r="M21" s="81" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="A22" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="88">
+        <f>B4/$N22*1000</f>
+        <v>257.67131211761051</v>
+      </c>
+      <c r="C22" s="88">
+        <f>C4/$N22*1000</f>
+        <v>249.51801157256091</v>
+      </c>
+      <c r="D22" s="88">
+        <f>D4/$N22*1000</f>
+        <v>253.59111367384335</v>
+      </c>
+      <c r="E22" s="88">
+        <f t="shared" ref="E22:I22" si="7">E4/$N22*1000</f>
+        <v>278.18158311467676</v>
+      </c>
+      <c r="F22" s="88">
+        <f t="shared" si="7"/>
+        <v>251.95599690851856</v>
+      </c>
+      <c r="G22" s="88">
+        <f t="shared" si="7"/>
+        <v>251.95599690851856</v>
+      </c>
+      <c r="H22" s="88">
+        <f t="shared" si="7"/>
+        <v>244.14524911896748</v>
+      </c>
+      <c r="I22" s="88">
+        <f t="shared" si="7"/>
+        <v>256.55970651267035</v>
+      </c>
+      <c r="J22" s="88">
+        <f>J4/$N22*1000</f>
+        <v>290.03253750359465</v>
+      </c>
+      <c r="K22" s="91">
+        <f>AVERAGE(B22:C22,J22)</f>
+        <v>265.74062039792199</v>
+      </c>
+      <c r="L22" s="92">
+        <f>_xlfn.STDEV.P(B22:C22,J22)</f>
+        <v>17.496514032727195</v>
+      </c>
+      <c r="M22" s="93">
+        <f>L22/K22</f>
+        <v>6.5840570427388126E-2</v>
+      </c>
+      <c r="N22" s="83">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="O22" s="89" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="A23" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="88">
+        <f>B22*2.69E+24*2479*3.85E-24/(0.00204*1010000)/4</f>
+        <v>802.68301398299059</v>
+      </c>
+      <c r="C23" s="88">
+        <f>C22*2.69E+24*2479*3.85E-24/(0.00204*1010000)/4</f>
+        <v>777.28431592217407</v>
+      </c>
+      <c r="D23" s="88">
+        <f>D22*2.69E+24*2479*3.85E-24/(0.00204*1010000)/4</f>
+        <v>789.97261189136441</v>
+      </c>
+      <c r="E23" s="88">
+        <f t="shared" ref="E23:I23" si="8">E22*2.69E+24*2479*3.85E-24/(0.00204*1010000)/4</f>
+        <v>866.57544347478677</v>
+      </c>
+      <c r="F23" s="88">
+        <f t="shared" si="8"/>
+        <v>784.87898915696417</v>
+      </c>
+      <c r="G23" s="88">
+        <f t="shared" si="8"/>
+        <v>784.87898915696417</v>
+      </c>
+      <c r="H23" s="88">
+        <f t="shared" si="8"/>
+        <v>760.54739195410514</v>
+      </c>
+      <c r="I23" s="88">
+        <f t="shared" si="8"/>
+        <v>799.220203435705</v>
+      </c>
+      <c r="J23" s="88">
+        <f>J22*2.69E+24*2479*3.85E-24/(0.00204*1010000)/4</f>
+        <v>903.49286245051542</v>
+      </c>
+      <c r="K23" s="91">
+        <f>AVERAGE(B23:C23,J23)</f>
+        <v>827.82006411856003</v>
+      </c>
+      <c r="L23" s="92">
+        <f>_xlfn.STDEV.P(B23:C23,J23)</f>
+        <v>54.504145232803005</v>
+      </c>
+      <c r="M23" s="93">
+        <f>L23/K23</f>
+        <v>6.5840570427388126E-2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>142</v>
+      </c>
+      <c r="O23" s="89"/>
+    </row>
+    <row r="24" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="A24" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="39">
+        <f>B7/$N24*1000</f>
+        <v>13.972813027108304</v>
+      </c>
+      <c r="C24" s="39">
+        <f>C7/$N24*1000</f>
+        <v>10.606221313194578</v>
+      </c>
+      <c r="D24" s="39">
+        <f>D7/$N24*1000</f>
+        <v>12.285330713413137</v>
+      </c>
+      <c r="E24" s="39">
+        <f t="shared" ref="E24:I24" si="9">E7/$N24*1000</f>
+        <v>13.110263389655024</v>
+      </c>
+      <c r="F24" s="39">
+        <f t="shared" si="9"/>
+        <v>14.520304910753486</v>
+      </c>
+      <c r="G24" s="39">
+        <f t="shared" si="9"/>
+        <v>14.520304910753486</v>
+      </c>
+      <c r="H24" s="39">
+        <f t="shared" si="9"/>
+        <v>13.814549753047432</v>
+      </c>
+      <c r="I24" s="39">
+        <f t="shared" si="9"/>
+        <v>13.991355741052356</v>
+      </c>
+      <c r="J24" s="39">
+        <f>J7/$N24*1000</f>
+        <v>12.624731276448674</v>
+      </c>
+      <c r="K24" s="91">
+        <f>AVERAGE(B24:C24,J24)</f>
+        <v>12.401255205583851</v>
+      </c>
+      <c r="L24" s="92">
+        <f>_xlfn.STDEV.P(B24:C24,J24)</f>
+        <v>1.383459698903452</v>
+      </c>
+      <c r="M24" s="93">
+        <f>L24/K24</f>
+        <v>0.11155803795413617</v>
+      </c>
+      <c r="N24" s="83">
+        <v>2.9550000000000001</v>
+      </c>
+      <c r="O24" s="89" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="87">
+        <f>B24/B22*$N25</f>
+        <v>110.6236404085622</v>
+      </c>
+      <c r="C25" s="87">
+        <f>C24/C22*$N25</f>
+        <v>86.713946390298545</v>
+      </c>
+      <c r="D25" s="87">
+        <f>D24/D22*$N25</f>
+        <v>98.828678545875334</v>
+      </c>
+      <c r="E25" s="87">
+        <f t="shared" ref="E25:I25" si="10">E24/E22*$N25</f>
+        <v>96.142012765349008</v>
+      </c>
+      <c r="F25" s="87">
+        <f t="shared" si="10"/>
+        <v>117.56585428165937</v>
+      </c>
+      <c r="G25" s="87">
+        <f t="shared" si="10"/>
+        <v>117.56585428165937</v>
+      </c>
+      <c r="H25" s="87">
+        <f t="shared" si="10"/>
+        <v>115.42998111949476</v>
+      </c>
+      <c r="I25" s="87">
+        <f t="shared" si="10"/>
+        <v>111.25038338916725</v>
+      </c>
+      <c r="J25" s="87">
+        <f>J24/J22*$N25</f>
+        <v>88.798491457656183</v>
+      </c>
+      <c r="K25" s="91">
+        <f>AVERAGE(B25:C25,J25)</f>
+        <v>95.378692752172313</v>
+      </c>
+      <c r="L25" s="92">
+        <f>_xlfn.STDEV.P(B25:C25,J25)</f>
+        <v>10.813345267739262</v>
+      </c>
+      <c r="M25" s="93">
+        <f>L25/K25</f>
+        <v>0.1133727560707523</v>
+      </c>
+      <c r="N25" s="83">
+        <v>2040</v>
+      </c>
+      <c r="O25" s="89" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="F26" s="1"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="90"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="F27" s="1"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="90"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DDAB8F-1E3A-460A-9C55-42BCBFC62DDD}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2800,7 +3572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6789E3-055C-4FD4-96DB-F71CA9E2F53C}">
   <dimension ref="A2:P39"/>
   <sheetViews>
@@ -3738,7 +4510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24504FD0-8187-4C33-A7D1-9E38C1AA4864}">
   <dimension ref="A1:T28"/>
   <sheetViews>
@@ -4482,7 +5254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B8D906-DECF-495E-B648-BA86F65A43A8}">
   <dimension ref="A1:T28"/>
   <sheetViews>
@@ -5205,7 +5977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D68134-76B1-4DF2-B2D5-A6AD487B0E43}">
   <dimension ref="A1:U29"/>
   <sheetViews>
@@ -5638,7 +6410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8FD118-7DAB-44F9-A6C2-13C8E628D16A}">
   <dimension ref="A1:AJ27"/>
   <sheetViews>
@@ -6244,7 +7016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371E5485-8047-4EFF-93C7-3FA5C516909C}">
   <dimension ref="A1:O24"/>
   <sheetViews>
@@ -6693,7 +7465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086C7CE1-5556-4BF5-B0E4-471B800382FE}">
   <dimension ref="A1:T29"/>
   <sheetViews>
